--- a/biology/Botanique/Astragalus_alopecuroides/Astragalus_alopecuroides.xlsx
+++ b/biology/Botanique/Astragalus_alopecuroides/Astragalus_alopecuroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Astragalus alopecuroides, aussi appelée Astragale queue de renard, Astragale de Narbonne, ou Queue de renard d'Espagne[1], est une espèce végétale de la famille des Fabaceae. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astragalus alopecuroides, aussi appelée Astragale queue de renard, Astragale de Narbonne, ou Queue de renard d'Espagne, est une espèce végétale de la famille des Fabaceae. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée pérenne.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du sud-ouest de l'Europe (France, Espagne) et du nord-ouest de l'Afrique (Maroc, Algérie)[2]. Dans l'ouest de l'Hérault (France, Occitanie), elle est présente sur la colline d'Ensérune et celles de Nissan, au-dessus de l'étang de la Matte (Étang de Lespignan).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du sud-ouest de l'Europe (France, Espagne) et du nord-ouest de l'Afrique (Maroc, Algérie). Dans l'ouest de l'Hérault (France, Occitanie), elle est présente sur la colline d'Ensérune et celles de Nissan, au-dessus de l'étang de la Matte (Étang de Lespignan).
 </t>
         </is>
       </c>
